--- a/direcciones_resultado.xlsx
+++ b/direcciones_resultado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CRA 11 25 - 18, BOGOTA</t>
+          <t>CLL 89 # 90B-94, BOGOTA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -488,28 +488,28 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CRA 11 25 - 18, BOGOTA</t>
+          <t>Calle 89 # 90B-94</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>92.85714285714286</v>
       </c>
       <c r="F2" t="n">
-        <v>4.574851799999999</v>
+        <v>4.717319</v>
       </c>
       <c r="G2" t="n">
-        <v>-74.0991179</v>
+        <v>-74.10324</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>documentos_clientes_wenia/cliente_wenialover1.pdf</t>
+          <t>documentos_clientes_wenia/cliente_wenialover10.pdf</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CRA 11 25 - 18, BOGOTA</t>
+          <t>CRA 28 # 29B-41, BOGOTA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,28 +519,28 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CRA 11 25 18, BOGOTA</t>
+          <t>Kra 28 # 29B-41</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>95.23809523809523</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="F3" t="n">
-        <v>4.574851799999999</v>
+        <v>4.6324222</v>
       </c>
       <c r="G3" t="n">
-        <v>-74.0991179</v>
+        <v>-74.0819879</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>documentos_clientes_wenia/cliente_wenialover1.pdf</t>
+          <t>documentos_clientes_wenia/cliente_wenialover100.pdf</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CRA 11 25 - 18, BOGOTA</t>
+          <t>CRA 77 # 25A-31, BOGOTA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,28 +550,28 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>KRA 11 25 - 18, BOGOTA</t>
+          <t>Kra 77 # 25A-31</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>95.45454545454545</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="F4" t="n">
-        <v>4.710988599999999</v>
+        <v>4.5390217</v>
       </c>
       <c r="G4" t="n">
-        <v>-74.072092</v>
+        <v>-74.1555053</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>documentos_clientes_wenia/cliente_wenialover1.pdf</t>
+          <t>documentos_clientes_wenia/cliente_wenialover11.pdf</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CRA 11 25 - 18, BOGOTA</t>
+          <t>CRA 100 # 65-6, BOGOTA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,28 +581,28 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CARRERA 11 25 - 18, BOGOTA</t>
+          <t>Kra 100 # 65-6</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>91.66666666666666</v>
       </c>
       <c r="F5" t="n">
-        <v>4.574851799999999</v>
+        <v>4.6760474</v>
       </c>
       <c r="G5" t="n">
-        <v>-74.0991179</v>
+        <v>-74.1417932</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>documentos_clientes_wenia/cliente_wenialover10.pdf</t>
+          <t>documentos_clientes_wenia/cliente_wenialover13.pdf</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>KRA 91 69 - 79, BOGOTA</t>
+          <t>CRA 58 # 102B-32, BOGOTA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,28 +612,28 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>KRA 91 69 - 79, BOGOTA</t>
+          <t>Kra 58 # 102B-32</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>92.85714285714286</v>
       </c>
       <c r="F6" t="n">
-        <v>4.5341434</v>
+        <v>4.710988599999999</v>
       </c>
       <c r="G6" t="n">
-        <v>-74.1542896</v>
+        <v>-74.072092</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>documentos_clientes_wenia/cliente_wenialover10.pdf</t>
+          <t>documentos_clientes_wenia/cliente_wenialover15.pdf</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>KRA 91 69 - 79, BOGOTA</t>
+          <t>CLL 87 # 98-67, BOGOTA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,28 +643,28 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>KRA 91 69 79, BOGOTA</t>
+          <t>Calle 87 # 98-67</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>95.23809523809523</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="F7" t="n">
-        <v>4.6645971</v>
+        <v>4.714494</v>
       </c>
       <c r="G7" t="n">
-        <v>-74.0555382</v>
+        <v>-74.10328</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>documentos_clientes_wenia/cliente_wenialover11.pdf</t>
+          <t>documentos_clientes_wenia/cliente_wenialover19.pdf</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CALLE 18 42 - 87, BOGOTA</t>
+          <t>CRA 45 # 25-48, BOGOTA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -674,28 +674,28 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CALLE 18 42 - 87, BOGOTA</t>
+          <t>Kra 45 # 25-48</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100</v>
+        <v>91.66666666666666</v>
       </c>
       <c r="F8" t="n">
-        <v>4.5937082</v>
+        <v>4.710988599999999</v>
       </c>
       <c r="G8" t="n">
-        <v>-74.0901113</v>
+        <v>-74.072092</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>documentos_clientes_wenia/cliente_wenialover11.pdf</t>
+          <t>documentos_clientes_wenia/cliente_wenialover2.pdf</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CALLE 18 42 - 87, BOGOTA</t>
+          <t>CLL 77 # 39-44, BOGOTA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -705,28 +705,28 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CALLE 18 42 87, BOGOTA</t>
+          <t>Calle 77 # 39-44</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>95.65217391304348</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="F9" t="n">
-        <v>4.5937082</v>
+        <v>4.666571999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>-74.0901113</v>
+        <v>-74.0633567</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>documentos_clientes_wenia/cliente_wenialover12.pdf</t>
+          <t>documentos_clientes_wenia/cliente_wenialover21.pdf</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TRANSVERSAL 52 25 - 5, BOGOTA</t>
+          <t>CLL 32 # 79B-34, BOGOTA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -736,28 +736,28 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>TRANSVERSAL 52 25 5, BOGOTA</t>
+          <t>Calle 32 # 79B-34</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>96.42857142857143</v>
+        <v>92.85714285714286</v>
       </c>
       <c r="F10" t="n">
-        <v>4.576313499999999</v>
+        <v>4.584430999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>-74.16406979999999</v>
+        <v>-74.116427</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>documentos_clientes_wenia/cliente_wenialover12.pdf</t>
+          <t>documentos_clientes_wenia/cliente_wenialover23.pdf</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TRANSVERSAL 52 25 - 5, BOGOTA</t>
+          <t>CLL 116 # 98A-105, BOGOTA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -767,28 +767,28 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>TRANSVERSAL 52 25 - 5, BOGOTA</t>
+          <t>Calle 116 # 98A-105</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100</v>
+        <v>93.75</v>
       </c>
       <c r="F11" t="n">
-        <v>4.576313499999999</v>
+        <v>4.7006476</v>
       </c>
       <c r="G11" t="n">
-        <v>-74.16406979999999</v>
+        <v>-74.0780936</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>documentos_clientes_wenia/cliente_wenialover2.pdf</t>
+          <t>documentos_clientes_wenia/cliente_wenialover24.pdf</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CALLE 52 3 - 19, BOGOTA</t>
+          <t>CRA 18 # 14-19, BOGOTA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -798,28 +798,28 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>CALLE 52 3 - 19, BOGOTA</t>
+          <t>Kra 18 # 14-19</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100</v>
+        <v>91.66666666666666</v>
       </c>
       <c r="F12" t="n">
-        <v>4.6401823</v>
+        <v>4.710988599999999</v>
       </c>
       <c r="G12" t="n">
-        <v>-74.07159899999999</v>
+        <v>-74.072092</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>documentos_clientes_wenia/cliente_wenialover2.pdf</t>
+          <t>documentos_clientes_wenia/cliente_wenialover26.pdf</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CALLE 52 3 - 19, BOGOTA</t>
+          <t>CLL 50 # 11A-10, BOGOTA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -829,28 +829,28 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>CALLE 52 3 19, BOGOTA</t>
+          <t>Calle 50 # 11A-10</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>95.45454545454545</v>
+        <v>92.85714285714286</v>
       </c>
       <c r="F13" t="n">
-        <v>4.6401823</v>
+        <v>4.6387108</v>
       </c>
       <c r="G13" t="n">
-        <v>-74.07159899999999</v>
+        <v>-74.0746406</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>documentos_clientes_wenia/cliente_wenialover3.pdf</t>
+          <t>documentos_clientes_wenia/cliente_wenialover28.pdf</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AV 22 5 - 61, BOGOTA</t>
+          <t>CRA 6 # 38-106, BOGOTA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -860,17 +860,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>AV 22 5 - 61, BOGOTA</t>
+          <t>Kra 6 # 38-106</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100</v>
+        <v>91.66666666666666</v>
       </c>
       <c r="F14" t="n">
-        <v>4.6325324</v>
+        <v>4.710988599999999</v>
       </c>
       <c r="G14" t="n">
-        <v>-74.0748486</v>
+        <v>-74.072092</v>
       </c>
     </row>
     <row r="15">
@@ -881,7 +881,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AV 22 5 - 61, BOGOTA</t>
+          <t>CLL 109 # 36-4, BOGOTA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -891,28 +891,28 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>AV 22 5 61, BOGOTA</t>
+          <t>Calle 109 # 36-4</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>94.73684210526316</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="F15" t="n">
-        <v>4.5662211</v>
+        <v>4.6945841</v>
       </c>
       <c r="G15" t="n">
-        <v>-74.0863873</v>
+        <v>-74.048957</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>documentos_clientes_wenia/cliente_wenialover4.pdf</t>
+          <t>documentos_clientes_wenia/cliente_wenialover31.pdf</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CRA 19 11 - 40, BOGOTA</t>
+          <t>CRA 41 # 31B-21, BOGOTA</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -922,28 +922,28 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>KRA 19 11 - 40, BOGOTA</t>
+          <t>Kra 41 # 31B-21</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>95.45454545454545</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="F16" t="n">
-        <v>4.710988599999999</v>
+        <v>4.5850894</v>
       </c>
       <c r="G16" t="n">
-        <v>-74.072092</v>
+        <v>-74.1152464</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>documentos_clientes_wenia/cliente_wenialover4.pdf</t>
+          <t>documentos_clientes_wenia/cliente_wenialover32.pdf</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CRA 19 11 - 40, BOGOTA</t>
+          <t>CRA 49 # 21-81, BOGOTA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -953,28 +953,28 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>CARRERA 19 11 - 40, BOGOTA</t>
+          <t>Kra 49 # 21-81</t>
         </is>
       </c>
       <c r="E17" t="n">
         <v>91.66666666666666</v>
       </c>
       <c r="F17" t="n">
-        <v>4.6413082</v>
+        <v>4.6987161</v>
       </c>
       <c r="G17" t="n">
-        <v>-74.0708717</v>
+        <v>-74.0933491</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>documentos_clientes_wenia/cliente_wenialover4.pdf</t>
+          <t>documentos_clientes_wenia/cliente_wenialover33.pdf</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CRA 19 11 - 40, BOGOTA</t>
+          <t>CLL 95 # 73B-40, BOGOTA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -984,28 +984,28 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>CRA 19 11 - 40, BOGOTA</t>
+          <t>Calle 95 # 73B-40</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100</v>
+        <v>92.85714285714286</v>
       </c>
       <c r="F18" t="n">
-        <v>4.6055497</v>
+        <v>4.6829265</v>
       </c>
       <c r="G18" t="n">
-        <v>-74.0857644</v>
+        <v>-74.05606379999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>documentos_clientes_wenia/cliente_wenialover4.pdf</t>
+          <t>documentos_clientes_wenia/cliente_wenialover34.pdf</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CRA 19 11 - 40, BOGOTA</t>
+          <t>CLL 98 # 4B-119, BOGOTA</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1015,28 +1015,28 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>CRA 19 11 40, BOGOTA</t>
+          <t>Calle 98 # 4B-119</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>95.23809523809523</v>
+        <v>92.85714285714286</v>
       </c>
       <c r="F19" t="n">
-        <v>4.6055497</v>
+        <v>4.684653</v>
       </c>
       <c r="G19" t="n">
-        <v>-74.0857644</v>
+        <v>-74.050133</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>documentos_clientes_wenia/cliente_wenialover5.pdf</t>
+          <t>documentos_clientes_wenia/cliente_wenialover35.pdf</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CRA 71 53 - 46, BOGOTA</t>
+          <t>CRA 19 # 54-69, BOGOTA</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1046,28 +1046,28 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>CRA 71 53 - 46, BOGOTA</t>
+          <t>Kra 19 # 54-69</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100</v>
+        <v>91.66666666666666</v>
       </c>
       <c r="F20" t="n">
-        <v>4.6702299</v>
+        <v>4.642703</v>
       </c>
       <c r="G20" t="n">
-        <v>-74.10436779999999</v>
+        <v>-74.0697069</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>documentos_clientes_wenia/cliente_wenialover5.pdf</t>
+          <t>documentos_clientes_wenia/cliente_wenialover36.pdf</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CRA 71 53 - 46, BOGOTA</t>
+          <t>CRA 84 # 26B-40, BOGOTA</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1077,28 +1077,28 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>KRA 71 53 - 46, BOGOTA</t>
+          <t>Kra 84 # 26B-40</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>95.45454545454545</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="F21" t="n">
-        <v>4.5935484</v>
+        <v>4.710988599999999</v>
       </c>
       <c r="G21" t="n">
-        <v>-74.13794249999999</v>
+        <v>-74.072092</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>documentos_clientes_wenia/cliente_wenialover5.pdf</t>
+          <t>documentos_clientes_wenia/cliente_wenialover38.pdf</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CRA 71 53 - 46, BOGOTA</t>
+          <t>CLL 58 # 77B-81, BOGOTA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1108,28 +1108,28 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>CARRERA 71 53 - 46, BOGOTA</t>
+          <t>Calle 58 # 77B-81</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>91.66666666666666</v>
+        <v>92.85714285714286</v>
       </c>
       <c r="F22" t="n">
-        <v>4.6702299</v>
+        <v>4.6452992</v>
       </c>
       <c r="G22" t="n">
-        <v>-74.10436779999999</v>
+        <v>-74.0690941</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>documentos_clientes_wenia/cliente_wenialover5.pdf</t>
+          <t>documentos_clientes_wenia/cliente_wenialover39.pdf</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CRA 71 53 - 46, BOGOTA</t>
+          <t>CRA 87 # 79-25, BOGOTA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1139,28 +1139,28 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>CRA 71 53 46, BOGOTA</t>
+          <t>Kra 87 # 79-25</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>95.23809523809523</v>
+        <v>91.66666666666666</v>
       </c>
       <c r="F23" t="n">
-        <v>4.6702299</v>
+        <v>4.6385971</v>
       </c>
       <c r="G23" t="n">
-        <v>-74.10436779999999</v>
+        <v>-74.16152919999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>documentos_clientes_wenia/cliente_wenialover6.pdf</t>
+          <t>documentos_clientes_wenia/cliente_wenialover40.pdf</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>KRA 36 54 - 71, BOGOTA</t>
+          <t>CLL 74 # 116B-114, BOGOTA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1170,28 +1170,28 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>KRA 36 54 71, BOGOTA</t>
+          <t>Calle 74 # 116B-114</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>95.23809523809523</v>
+        <v>93.75</v>
       </c>
       <c r="F24" t="n">
-        <v>4.5857522</v>
+        <v>4.6545778</v>
       </c>
       <c r="G24" t="n">
-        <v>-74.1663676</v>
+        <v>-74.0498398</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>documentos_clientes_wenia/cliente_wenialover6.pdf</t>
+          <t>documentos_clientes_wenia/cliente_wenialover41.pdf</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>KRA 36 54 - 71, BOGOTA</t>
+          <t>CRA 107 # 17B-46, BOGOTA</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1201,28 +1201,28 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>KRA 36 54 - 71, BOGOTA</t>
+          <t>Kra 107 # 17B-46</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100</v>
+        <v>92.85714285714286</v>
       </c>
       <c r="F25" t="n">
-        <v>4.5857522</v>
+        <v>4.487491</v>
       </c>
       <c r="G25" t="n">
-        <v>-74.1663676</v>
+        <v>-74.1060056</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>documentos_clientes_wenia/cliente_wenialover7.pdf</t>
+          <t>documentos_clientes_wenia/cliente_wenialover45.pdf</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>KRA 12 29 - 72, BOGOTA</t>
+          <t>CRA 75 # 60-37, BOGOTA</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1232,28 +1232,28 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>KRA 12 29 - 72, BOGOTA</t>
+          <t>Kra 75 # 60-37</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100</v>
+        <v>91.66666666666666</v>
       </c>
       <c r="F26" t="n">
-        <v>4.710988599999999</v>
+        <v>4.6564943</v>
       </c>
       <c r="G26" t="n">
-        <v>-74.072092</v>
+        <v>-74.0509181</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>documentos_clientes_wenia/cliente_wenialover7.pdf</t>
+          <t>documentos_clientes_wenia/cliente_wenialover48.pdf</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>KRA 12 29 - 72, BOGOTA</t>
+          <t>CLL 73 # 82A-86, BOGOTA</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1263,28 +1263,28 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>KRA 12 29 72, BOGOTA</t>
+          <t>Calle 73 # 82A-86</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>95.23809523809523</v>
+        <v>92.85714285714286</v>
       </c>
       <c r="F27" t="n">
-        <v>4.710988599999999</v>
+        <v>4.663589000000001</v>
       </c>
       <c r="G27" t="n">
-        <v>-74.072092</v>
+        <v>-74.065603</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>documentos_clientes_wenia/cliente_wenialover8.pdf</t>
+          <t>documentos_clientes_wenia/cliente_wenialover51.pdf</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TRANSVERSAL 24 38 - 11, BOGOTA</t>
+          <t>CRA 30 # 36B-26, BOGOTA</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1294,28 +1294,28 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>TRANSVERSAL 24 38 - 11, BOGOTA</t>
+          <t>Kra 30 # 36B-26</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="F28" t="n">
-        <v>4.6436509</v>
+        <v>4.6174136</v>
       </c>
       <c r="G28" t="n">
-        <v>-74.0732297</v>
+        <v>-74.0716426</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>documentos_clientes_wenia/cliente_wenialover8.pdf</t>
+          <t>documentos_clientes_wenia/cliente_wenialover52.pdf</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TRANSVERSAL 24 38 - 11, BOGOTA</t>
+          <t>CRA 71 # 51A-63, BOGOTA</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1325,28 +1325,28 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>TRANSVERSAL 24 38 11, BOGOTA</t>
+          <t>Kra 71 # 51A-63</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>96.55172413793103</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="F29" t="n">
-        <v>4.6436509</v>
+        <v>4.5397658</v>
       </c>
       <c r="G29" t="n">
-        <v>-74.0732297</v>
+        <v>-74.1085903</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>documentos_clientes_wenia/cliente_wenialover9.pdf</t>
+          <t>documentos_clientes_wenia/cliente_wenialover53.pdf</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CRA 21 59 - 74, BOGOTA</t>
+          <t>CRA 87 # 35A-73, BOGOTA</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1356,28 +1356,28 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>CRA 21 59 74, BOGOTA</t>
+          <t>Kra 87 # 35A-73</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>95.23809523809523</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="F30" t="n">
-        <v>4.658433899999999</v>
+        <v>4.6385971</v>
       </c>
       <c r="G30" t="n">
-        <v>-74.0677628</v>
+        <v>-74.16152919999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>documentos_clientes_wenia/cliente_wenialover9.pdf</t>
+          <t>documentos_clientes_wenia/cliente_wenialover55.pdf</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CRA 21 59 - 74, BOGOTA</t>
+          <t>CRA 92 # 63-9, BOGOTA</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1387,11 +1387,11 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>KRA 21 59 - 74, BOGOTA</t>
+          <t>Kra 92 # 63-9</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>95.45454545454545</v>
+        <v>90.90909090909091</v>
       </c>
       <c r="F31" t="n">
         <v>4.710988599999999</v>
@@ -1403,12 +1403,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>documentos_clientes_wenia/cliente_wenialover9.pdf</t>
+          <t>documentos_clientes_wenia/cliente_wenialover56.pdf</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CRA 21 59 - 74, BOGOTA</t>
+          <t>CRA 118 # 37-109, BOGOTA</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1418,48 +1418,978 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>CARRERA 21 59 - 74, BOGOTA</t>
+          <t>Kra 118 # 37-109</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>91.66666666666666</v>
+        <v>92.85714285714286</v>
       </c>
       <c r="F32" t="n">
-        <v>4.658433899999999</v>
+        <v>4.4851163</v>
       </c>
       <c r="G32" t="n">
-        <v>-74.0677628</v>
+        <v>-74.1105779</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>documentos_clientes_wenia/cliente_wenialover57.pdf</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>CRA 105 # 36B-6, BOGOTA</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>BOGOTA</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Kra 105 # 36B-6</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>92.30769230769231</v>
+      </c>
+      <c r="F33" t="n">
+        <v>4.5855352</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-74.0652941</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>documentos_clientes_wenia/cliente_wenialover58.pdf</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>CLL 73 # 9A-13, BOGOTA</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>BOGOTA</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Calle 73 # 9A-13</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>92.30769230769231</v>
+      </c>
+      <c r="F34" t="n">
+        <v>4.6889416</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-74.0953928</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>documentos_clientes_wenia/cliente_wenialover59.pdf</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>CRA 63 # 14-49, BOGOTA</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>BOGOTA</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Kra 63 # 14-49</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>91.66666666666666</v>
+      </c>
+      <c r="F35" t="n">
+        <v>4.710988599999999</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-74.072092</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>documentos_clientes_wenia/cliente_wenialover6.pdf</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>CLL 81 # 89-86, BOGOTA</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>BOGOTA</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Calle 81 # 89-86</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>92.30769230769231</v>
+      </c>
+      <c r="F36" t="n">
+        <v>4.7055716</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-74.1031539</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>documentos_clientes_wenia/cliente_wenialover60.pdf</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>CLL 39 # 38B-29, BOGOTA</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>BOGOTA</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Calle 39 # 38B-29</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>92.85714285714286</v>
+      </c>
+      <c r="F37" t="n">
+        <v>4.627206999999999</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-74.07083999999999</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>documentos_clientes_wenia/cliente_wenialover62.pdf</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>CRA 40 # 66B-52, BOGOTA</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>BOGOTA</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Kra 40 # 66B-52</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>92.30769230769231</v>
+      </c>
+      <c r="F38" t="n">
+        <v>4.6305908</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-74.0936208</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>documentos_clientes_wenia/cliente_wenialover64.pdf</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>CLL 19 # 84B-8, BOGOTA</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>BOGOTA</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Calle 19 # 84B-8</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>92.30769230769231</v>
+      </c>
+      <c r="F39" t="n">
+        <v>4.604490999999999</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-74.069923</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>documentos_clientes_wenia/cliente_wenialover65.pdf</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>CRA 49 # 70B-44, BOGOTA</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>BOGOTA</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Kra 49 # 70B-44</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>92.30769230769231</v>
+      </c>
+      <c r="F40" t="n">
+        <v>4.6506658</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-74.0490758</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>documentos_clientes_wenia/cliente_wenialover67.pdf</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>CLL 82 # 5B-48, BOGOTA</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>BOGOTA</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Calle 82 # 5B-48</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>92.30769230769231</v>
+      </c>
+      <c r="F41" t="n">
+        <v>4.6670327</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-74.0553654</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>documentos_clientes_wenia/cliente_wenialover68.pdf</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>CRA 92 # 49A-87, BOGOTA</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>BOGOTA</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Kra 92 # 49A-87</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>92.30769230769231</v>
+      </c>
+      <c r="F42" t="n">
+        <v>4.5917346</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-74.1418781</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>documentos_clientes_wenia/cliente_wenialover7.pdf</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>CLL 76 # 80B-74, BOGOTA</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>BOGOTA</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Calle 76 # 80B-74</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>92.85714285714286</v>
+      </c>
+      <c r="F43" t="n">
+        <v>4.666135</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-74.06410199999999</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>documentos_clientes_wenia/cliente_wenialover70.pdf</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>CLL 68 # 79-44, BOGOTA</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>BOGOTA</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Calle 68 # 79-44</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>92.30769230769231</v>
+      </c>
+      <c r="F44" t="n">
+        <v>4.6723539</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-74.0827259</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>documentos_clientes_wenia/cliente_wenialover71.pdf</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>CLL 53 # 95A-84, BOGOTA</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>BOGOTA</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Calle 53 # 95A-84</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>92.85714285714286</v>
+      </c>
+      <c r="F45" t="n">
+        <v>4.6512775</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-74.09328889999999</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>documentos_clientes_wenia/cliente_wenialover72.pdf</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>CLL 113 # 111A-96, BOGOTA</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>BOGOTA</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Calle 113 # 111A-96</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>93.75</v>
+      </c>
+      <c r="F46" t="n">
+        <v>4.4890577</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-74.1131257</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>documentos_clientes_wenia/cliente_wenialover75.pdf</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>CLL 79 # 84-25, BOGOTA</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>BOGOTA</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Calle 79 # 84-25</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>92.30769230769231</v>
+      </c>
+      <c r="F47" t="n">
+        <v>4.663594</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-74.0542409</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>documentos_clientes_wenia/cliente_wenialover77.pdf</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>CLL 6 # 36-26, BOGOTA</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>BOGOTA</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Calle 6 # 36-26</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>91.66666666666666</v>
+      </c>
+      <c r="F48" t="n">
+        <v>4.6122374</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-74.1033827</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>documentos_clientes_wenia/cliente_wenialover79.pdf</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>CRA 13 # 71B-36, BOGOTA</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>BOGOTA</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Kra 13 # 71B-36</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>92.30769230769231</v>
+      </c>
+      <c r="F49" t="n">
+        <v>4.6885117</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-74.0926577</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>documentos_clientes_wenia/cliente_wenialover80.pdf</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>CLL 33 # 44-77, BOGOTA</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>BOGOTA</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Calle 33 # 44-77</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>92.30769230769231</v>
+      </c>
+      <c r="F50" t="n">
+        <v>4.621766399999999</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-74.07205569999999</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>documentos_clientes_wenia/cliente_wenialover81.pdf</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>CRA 29 # 74B-76, BOGOTA</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>BOGOTA</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Kra 29 # 74B-76</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>92.30769230769231</v>
+      </c>
+      <c r="F51" t="n">
+        <v>4.6793477</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-74.1057292</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>documentos_clientes_wenia/cliente_wenialover82.pdf</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>CLL 98 # 67B-38, BOGOTA</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>BOGOTA</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Calle 98 # 67B-38</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>92.85714285714286</v>
+      </c>
+      <c r="F52" t="n">
+        <v>4.685172</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-74.05416699999999</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>documentos_clientes_wenia/cliente_wenialover83.pdf</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>CLL 110 # 71A-82, BOGOTA</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>BOGOTA</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Calle 110 # 71A-82</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>93.33333333333333</v>
+      </c>
+      <c r="F53" t="n">
+        <v>4.686367</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-74.026656</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>documentos_clientes_wenia/cliente_wenialover89.pdf</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>CRA 10 # 43A-9, BOGOTA</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>BOGOTA</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Kra 10 # 43A-9</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>91.66666666666666</v>
+      </c>
+      <c r="F54" t="n">
+        <v>4.710988599999999</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-74.072092</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
           <t>documentos_clientes_wenia/cliente_wenialover9.pdf</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>CRA 21 59 - 74, BOGOTA</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>BOGOTA</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>CRA 21 59 - 74, BOGOTA</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>100</v>
-      </c>
-      <c r="F33" t="n">
-        <v>4.658433899999999</v>
-      </c>
-      <c r="G33" t="n">
-        <v>-74.0677628</v>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>CRA 91 # 63A-95, BOGOTA</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>BOGOTA</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Kra 91 # 63A-95</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>92.30769230769231</v>
+      </c>
+      <c r="F55" t="n">
+        <v>4.6659352</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-74.0226718</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>documentos_clientes_wenia/cliente_wenialover90.pdf</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>CRA 2 # 110B-110, BOGOTA</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>BOGOTA</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Kra 2 # 110B-110</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>92.85714285714286</v>
+      </c>
+      <c r="F56" t="n">
+        <v>4.710988599999999</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-74.072092</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>documentos_clientes_wenia/cliente_wenialover91.pdf</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>CRA 106 # 70-96, BOGOTA</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>BOGOTA</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Kra 106 # 70-96</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>92.30769230769231</v>
+      </c>
+      <c r="F57" t="n">
+        <v>4.6694721</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-74.02475769999999</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>documentos_clientes_wenia/cliente_wenialover92.pdf</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>CRA 82 # 46B-30, BOGOTA</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>BOGOTA</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Kra 82 # 46B-30</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>92.30769230769231</v>
+      </c>
+      <c r="F58" t="n">
+        <v>4.5665682</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-74.11581889999999</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>documentos_clientes_wenia/cliente_wenialover93.pdf</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>CLL 86 # 80B-72, BOGOTA</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>BOGOTA</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Calle 86 # 80B-72</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>92.85714285714286</v>
+      </c>
+      <c r="F59" t="n">
+        <v>4.674364</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-74.06401</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>documentos_clientes_wenia/cliente_wenialover94.pdf</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>CRA 44 # 35-90, BOGOTA</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>BOGOTA</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Kra 44 # 35-90</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>91.66666666666666</v>
+      </c>
+      <c r="F60" t="n">
+        <v>4.5688882</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-74.1138287</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>documentos_clientes_wenia/cliente_wenialover96.pdf</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>CRA 81 # 56-35, BOGOTA</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>BOGOTA</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Kra 81 # 56-35</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>91.66666666666666</v>
+      </c>
+      <c r="F61" t="n">
+        <v>4.710988599999999</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-74.072092</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>documentos_clientes_wenia/cliente_wenialover98.pdf</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>CRA 101 # 92-120, BOGOTA</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>BOGOTA</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Kra 101 # 92-120</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>92.85714285714286</v>
+      </c>
+      <c r="F62" t="n">
+        <v>4.710988599999999</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-74.072092</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>documentos_clientes_wenia/cliente_wenialover99.pdf</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>CLL 85 # 51-79, BOGOTA</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>BOGOTA</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Calle 85 # 51-79</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>92.30769230769231</v>
+      </c>
+      <c r="F63" t="n">
+        <v>4.6728409</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-74.0634251</v>
       </c>
     </row>
   </sheetData>
